--- a/tests/fixtures/verification/cases/semantic/00006/00006-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00006/00006-wc_lang.xlsx
@@ -9,7 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-24500" yWindow="2940" windowWidth="24160" windowHeight="11880" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25000" windowHeight="4020" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="4540" windowWidth="25040" windowHeight="4980" tabRatio="500" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="9540" windowWidth="25040" windowHeight="5000" tabRatio="500" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="20" yWindow="14640" windowWidth="33960" windowHeight="6960" tabRatio="500" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -59,8 +62,80 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$3:$N$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Stop conditions'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Submodels'!$A$2:$H$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="0" hidden="1">'!!_Table of contents'!$D:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="22" hidden="1">'!!Authors'!$M:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="23" hidden="1">'!!Changes'!$R:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="5" hidden="1">'!!Compartments'!$V:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="20" hidden="1">'!!Conclusions'!$O:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="14" hidden="1">'!!dFBA objective reactions'!$K:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="15" hidden="1">'!!dFBA objective species'!$L:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="13" hidden="1">'!!dFBA objectives'!$M:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="3" hidden="1">'!!Environment'!$L:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="10" hidden="1">'!!Functions'!$J:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="8" hidden="1">'!!Init species concentrations'!$M:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="1" hidden="1">'!!Model'!$M:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="9" hidden="1">'!!Observables'!$J:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="19" hidden="1">'!!Observation sets'!$G:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="18" hidden="1">'!!Observations'!$X:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="16" hidden="1">'!!Parameters'!$L:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="12" hidden="1">'!!Rate laws'!$M:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="11" hidden="1">'!!Reactions'!$O:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="21" hidden="1">'!!References'!$S:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="7" hidden="1">'!!Species'!$K:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="6" hidden="1">'!!Species types'!$O:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="17" hidden="1">'!!Stop conditions'!$J:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="4" hidden="1">'!!Submodels'!$I:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Cols" localSheetId="2" hidden="1">'!!Taxon'!$L:$XFD</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$27</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="22" hidden="1">'!!Authors'!$A$2:$L$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="23" hidden="1">'!!Changes'!$A$2:$Q$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="5" hidden="1">'!!Compartments'!$A$3:$U$3</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="20" hidden="1">'!!Conclusions'!$A$3:$N$3</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="14" hidden="1">'!!dFBA objective reactions'!$A$2:$J$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="15" hidden="1">'!!dFBA objective species'!$A$2:$K$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="13" hidden="1">'!!dFBA objectives'!$A$2:$L$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="10" hidden="1">'!!Functions'!$A$2:$I$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="8" hidden="1">'!!Init species concentrations'!$A$2:$L$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="9" hidden="1">'!!Observables'!$A$2:$I$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="19" hidden="1">'!!Observation sets'!$A$2:$F$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="18" hidden="1">'!!Observations'!$A$3:$W$3</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="16" hidden="1">'!!Parameters'!$A$2:$K$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="12" hidden="1">'!!Rate laws'!$A$2:$L$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="11" hidden="1">'!!Reactions'!$A$3:$N$3</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="21" hidden="1">'!!References'!$A$2:$R$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="7" hidden="1">'!!Species'!$A$2:$J$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="6" hidden="1">'!!Species types'!$A$3:$N$3</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="17" hidden="1">'!!Stop conditions'!$A$2:$I$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.FilterData" localSheetId="4" hidden="1">'!!Submodels'!$A$2:$H$2</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="0" hidden="1">'!!_Table of contents'!$28:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="22" hidden="1">'!!Authors'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="23" hidden="1">'!!Changes'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="5" hidden="1">'!!Compartments'!$14:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="20" hidden="1">'!!Conclusions'!$14:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="14" hidden="1">'!!dFBA objective reactions'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="15" hidden="1">'!!dFBA objective species'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="13" hidden="1">'!!dFBA objectives'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="3" hidden="1">'!!Environment'!$9:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="10" hidden="1">'!!Functions'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="8" hidden="1">'!!Init species concentrations'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="1" hidden="1">'!!Model'!$14:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="9" hidden="1">'!!Observables'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="19" hidden="1">'!!Observation sets'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="18" hidden="1">'!!Observations'!$14:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="16" hidden="1">'!!Parameters'!$14:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="12" hidden="1">'!!Rate laws'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="11" hidden="1">'!!Reactions'!$14:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="21" hidden="1">'!!References'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="7" hidden="1">'!!Species'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="6" hidden="1">'!!Species types'!$14:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="17" hidden="1">'!!Stop conditions'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="4" hidden="1">'!!Submodels'!$13:$1048576</definedName>
+    <definedName name="Z_4D01D460_6B28_6142_A5BC_89F7C4D2C25D_.wvu.Rows" localSheetId="2" hidden="1">'!!Taxon'!$8:$1048576</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="wc lang model" guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" windowWidth="1252" windowHeight="173" tabRatio="500" activeSheetId="12" showFormulaBar="0"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -4228,7 +4303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="214">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 16:22:38'</t>
   </si>
@@ -4710,9 +4785,6 @@
     <t>cellular_compartment</t>
   </si>
   <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
     <t>gram</t>
   </si>
   <si>
@@ -4758,9 +4830,6 @@
     <t>forward</t>
   </si>
   <si>
-    <t>k1 * S1[c]</t>
-  </si>
-  <si>
     <t>k1</t>
   </si>
   <si>
@@ -4791,12 +4860,6 @@
     <t>gram / liter</t>
   </si>
   <si>
-    <t>density not used</t>
-  </si>
-  <si>
-    <t>test_case_00006</t>
-  </si>
-  <si>
     <t>Basic single forward reaction with two species in one compartment, nonzero initial amounts, and identical reaction rates.</t>
   </si>
   <si>
@@ -4812,26 +4875,87 @@
     <t>[c]: S2 ==&gt; S1</t>
   </si>
   <si>
-    <t>k2 * S2[c]</t>
-  </si>
-  <si>
     <t>reaction_2-forward</t>
   </si>
   <si>
     <t>k2</t>
   </si>
   <si>
-    <t>1 / (molecule * second)</t>
+    <t>test_case_00006_pop_mass_independent</t>
+  </si>
+  <si>
+    <t>abstract_compartment</t>
+  </si>
+  <si>
+    <t>pop_2_conc</t>
+  </si>
+  <si>
+    <t>Convert population to concentration</t>
+  </si>
+  <si>
+    <t>1 / (Avogadro * vol_c)</t>
+  </si>
+  <si>
+    <t>mole / (molecule liter)</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>Conversion factor for rate laws</t>
+  </si>
+  <si>
+    <t>Avogadro * rl_units_conv</t>
+  </si>
+  <si>
+    <t>1 / mole</t>
+  </si>
+  <si>
+    <t>k1 * S1[c] * pop_2_conc * vol_c * conv</t>
+  </si>
+  <si>
+    <t>k2 * S2[c] * pop_2_conc * vol_c * conv</t>
+  </si>
+  <si>
+    <t>Density compt. C</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule / mole</t>
+  </si>
+  <si>
+    <t>From scipy 1.3.1; will be updated to 2019 SI value eventually</t>
+  </si>
+  <si>
+    <t>vol_c</t>
+  </si>
+  <si>
+    <t>Volume of compartment c</t>
+  </si>
+  <si>
+    <t>Must equal volume of c in Compartments</t>
+  </si>
+  <si>
+    <t>rl_units_conv</t>
+  </si>
+  <si>
+    <t>Units conversion</t>
+  </si>
+  <si>
+    <t>1 / molecule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4877,6 +5001,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4947,7 +5077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5019,15 +5149,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5337,11 +5486,14 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5587,6 +5739,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:C27"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:C27"/>
+    </customSheetView>
+  </customSheetViews>
   <hyperlinks>
     <hyperlink ref="A4" location="'!!Data repo metadata'!A1" tooltip="Click to view data repo metadata" display="'!!Data repo metadata'!A1"/>
     <hyperlink ref="A5" location="'!!Model'!A1" tooltip="Click to view model" display="'!!Model'!A1"/>
@@ -5625,6 +5783,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5786,6 +5947,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:I2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="9">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
       <formula1>1</formula1>
@@ -5819,10 +5986,19 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1">
+      <selection activeCell="A3" sqref="A3:D4"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5869,10 +6045,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>197</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5880,10 +6064,18 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>201</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5980,16 +6172,22 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" scale="140" showRowCol="0" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:I2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="9">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A5:A12">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B12">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B5:B12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C3:C12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D3:D12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C5:C12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D5:D12"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E3:E12"/>
     <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F3:F12"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G3:G12"/>
@@ -6011,6 +6209,9 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6043,13 +6244,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="5"/>
@@ -6104,22 +6305,22 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>172</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6132,22 +6333,22 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6288,6 +6489,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:N3"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:N3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
@@ -6348,14 +6555,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6415,20 +6629,20 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="19" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6438,21 +6652,21 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="19" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6574,32 +6788,34 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:L2"/>
-  <dataValidations count="12">
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12">
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:L2"/>
+    </customSheetView>
+  </customSheetViews>
+  <dataValidations count="11">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A5:A12">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D5:D12">
       <formula1>"backward,forward"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E3:E12">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E5:E12">
       <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F4:F12"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="G3:G12">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F5:F12"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="G5:G12">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H3:H12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H5:H12"/>
     <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="I3:I12"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J3:J12"/>
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="K3:K12">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L3:L12"/>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="C3:C4">
-      <formula1>1</formula1>
-      <formula2>63</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B4:B12 D3:D4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B5:B12">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -6612,7 +6828,7 @@
           <x14:formula1>
             <xm:f>'!!Reactions'!$A$4:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>F3 C5:C12</xm:sqref>
+          <xm:sqref>C5:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6628,6 +6844,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6831,6 +7050,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:L2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:L2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="11">
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12">
       <formula1>255</formula1>
@@ -6881,6 +7106,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7056,6 +7284,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:J2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:J2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="9">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
       <formula1>1</formula1>
@@ -7103,6 +7337,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7292,6 +7529,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:K2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="9">
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12">
       <formula1>255</formula1>
@@ -7345,13 +7588,25 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="3">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7407,7 +7662,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="8">
@@ -7417,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7427,7 +7682,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="8">
@@ -7437,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7447,9 +7702,11 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="24">
         <v>1</v>
@@ -7457,50 +7714,78 @@
       <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>186</v>
+      <c r="F5" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="A6" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31">
+        <v>6.0221408570000002E+23</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="33" t="s">
+        <v>207</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="26"/>
+      <c r="A7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>186</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="28" t="s">
+        <v>210</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>213</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -7574,30 +7859,37 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+      <autoFilter ref="A2:K2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A13">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A9:A13">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B13">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B9:B13">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C3:C13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C9:C13">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D5:D13">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D9:D13">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F5:F13"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G3:G13"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H3:H13"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I3:I13"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J3:J13">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F9:F13"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G9:G13"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H9:H13"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I9:I13"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J9:J13">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K3:K13"/>
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E5:E13 D3:D4">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K9:K13"/>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E9:E13">
       <formula1>-1E-100</formula1>
     </dataValidation>
   </dataValidations>
@@ -7615,6 +7907,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7776,6 +8071,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:I2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="9">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
       <formula1>1</formula1>
@@ -7809,6 +8110,9 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7850,42 +8154,42 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>108</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="27" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="5"/>
@@ -8215,6 +8519,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:W3"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:W3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="4">
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:N2"/>
@@ -8302,14 +8612,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8333,7 +8646,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8351,7 +8664,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8535,6 +8848,11 @@
       <c r="L13" s="3"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="12">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="B2:L2">
       <formula1>1</formula1>
@@ -8583,6 +8901,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8702,6 +9023,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:F2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:F2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="6">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
       <formula1>1</formula1>
@@ -8730,6 +9057,9 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8762,10 +9092,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>121</v>
       </c>
       <c r="I2" s="5"/>
@@ -8981,6 +9311,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:N3"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:N3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
@@ -9033,6 +9369,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9320,6 +9659,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:R2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:R2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="18">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
       <formula1>1</formula1>
@@ -9388,6 +9733,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9591,6 +9939,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:L2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:L2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="12">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
       <formula1>1</formula1>
@@ -9644,6 +9998,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9917,6 +10274,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:Q2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:Q2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="16">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
       <formula1>1</formula1>
@@ -9987,6 +10350,9 @@
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:B6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10016,7 +10382,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10048,7 +10414,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10080,7 +10446,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10108,6 +10474,11 @@
       <c r="K7" s="3"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="6">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be unique." sqref="B2:K2"/>
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:K3">
@@ -10137,6 +10508,9 @@
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10266,6 +10640,11 @@
       <c r="K8" s="3"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="7">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be unique." sqref="B2:K2"/>
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:K3">
@@ -10297,6 +10676,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10448,6 +10830,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:H2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="8">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
       <formula1>1</formula1>
@@ -10476,10 +10864,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10520,29 +10911,29 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="27" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="5"/>
@@ -10627,15 +11018,15 @@
         <v>159</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -10644,10 +11035,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -10865,6 +11256,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:U3"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:U3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="2">
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
@@ -10948,6 +11345,9 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10976,22 +11376,22 @@
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="5"/>
@@ -11047,10 +11447,10 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11063,22 +11463,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -11091,13 +11491,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -11231,6 +11631,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:N3"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A3:N3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
@@ -11281,6 +11687,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3:E4"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11336,17 +11745,17 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11356,17 +11765,17 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11472,6 +11881,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:J2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:J2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="8">
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12">
       <formula1>255</formula1>
@@ -11521,6 +11936,9 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11584,14 +12002,14 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="18">
         <v>1.5E-3</v>
@@ -11600,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -11610,14 +12028,14 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="18">
         <v>1.5E-3</v>
@@ -11626,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -11748,6 +12166,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:L2"/>
+  <customSheetViews>
+    <customSheetView guid="{4D01D460-6B28-6142-A5BC-89F7C4D2C25D}" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:L2"/>
+    </customSheetView>
+  </customSheetViews>
   <dataValidations count="11">
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12 C3:C4">
       <formula1>255</formula1>

--- a/tests/fixtures/verification/cases/semantic/00006/00006-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00006/00006-wc_lang.xlsx
@@ -2982,7 +2982,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3213,7 +3213,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3470,7 +3470,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3860,7 +3860,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4179,7 +4179,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4459,7 +4459,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4704,7 +4704,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4975,7 +4975,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5343,7 +5343,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5570,7 +5570,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6111,7 +6111,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6442,7 +6442,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6616,7 +6616,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6961,7 +6961,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7367,7 +7367,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7662,7 +7662,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8044,7 +8044,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8226,7 +8226,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8414,7 +8414,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8634,7 +8634,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9143,7 +9143,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9522,7 +9522,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9795,7 +9795,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
